--- a/biology/Botanique/Salix_integra/Salix_integra.xlsx
+++ b/biology/Botanique/Salix_integra/Salix_integra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix integra (en chinois : 杞柳 ; pinyin : qǐliǔ ; en japonais : イヌコリヤナギ (inukoriyanagi?) ; en russe : Ива цельнолистная; transl. : Iva tselnolistnaïa) est une espèce de saules d'Extrême-Orient que l'on trouve à l'état naturel au sud du Primorié russe, à la frontière nord de la Chine, dans la péninsule coréenne, et dans les îles japonaises de Honshū et de Kyūshū. Cette espèce a été décrite par Carl Peter Thunberg en 1784 dans Systemat Vegetabilium.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce saule apprécie les prés humides des vallées ou des bords de rivière.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce saule dioïque[1] aux feuilles caduques gris-vert brillantes de 2 à 4 centimètres de longueur et de 1 à 1,8 centimètre de largeur sans stipules peut atteindre entre 2 mètres et 6 mètres de hauteur dans son habitat naturel. Il commence à fleurir en mai.
-Il a remporté un Award of Garden Merit de la Royal Horticultural Society[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce saule dioïque aux feuilles caduques gris-vert brillantes de 2 à 4 centimètres de longueur et de 1 à 1,8 centimètre de largeur sans stipules peut atteindre entre 2 mètres et 6 mètres de hauteur dans son habitat naturel. Il commence à fleurir en mai.
+Il a remporté un Award of Garden Merit de la Royal Horticultural Society,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar Salix integra 'Hakuro Nishiki'[4] est très répandu dans les jardins de l'hémisphère nord tempéré, où il est connu dans les pays francophones sous le nom vernaculaire de « saule-crevette » et de « saule Arlequin » (Harlequin-Weide) dans les pays germanophones. Il est panaché de feuilles de couleur rose et de blanc en été, tandis que ses rameaux deviennent plus verts. Cet arbuste ornemental peut atteindre 1,50 m de hauteur. C'est souvent une plante greffée. Le saule-crevette doit être taillé en fin d'hiver pour renouveler son feuillage coloré chaque année.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar Salix integra 'Hakuro Nishiki' est très répandu dans les jardins de l'hémisphère nord tempéré, où il est connu dans les pays francophones sous le nom vernaculaire de « saule-crevette » et de « saule Arlequin » (Harlequin-Weide) dans les pays germanophones. Il est panaché de feuilles de couleur rose et de blanc en été, tandis que ses rameaux deviennent plus verts. Cet arbuste ornemental peut atteindre 1,50 m de hauteur. C'est souvent une plante greffée. Le saule-crevette doit être taillé en fin d'hiver pour renouveler son feuillage coloré chaque année.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Salix multinervis Franch. &amp; Sav. ;
-Salix purpurea var. multinervis C.K.Schneid.[5] ;
+Salix purpurea var. multinervis C.K.Schneid. ;
 Salix japonica.</t>
         </is>
       </c>
